--- a/Datos/PIB.xlsx
+++ b/Datos/PIB.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tegucigalpa/Documents/Modelos_VAR/Datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B488DE3F-C402-864B-ADFA-471693E4A19A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0735EA-AF2C-7747-86AD-08C7A0B7BD7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16380" xr2:uid="{3583A8EE-2594-4D4E-8AFF-99A8471B7D45}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{3583A8EE-2594-4D4E-8AFF-99A8471B7D45}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,12 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>Año</t>
   </si>
   <si>
     <t>Valor</t>
+  </si>
+  <si>
+    <t>Variacion</t>
   </si>
 </sst>
 </file>
@@ -90,10 +94,10 @@
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -109,11 +113,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{43851FD3-4624-AC40-AA8F-DF5CC11305A9}" name="Tabla1" displayName="Tabla1" ref="A1:B64" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{43851FD3-4624-AC40-AA8F-DF5CC11305A9}" name="Tabla1" displayName="Tabla1" ref="A1:B64" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:B64" xr:uid="{43851FD3-4624-AC40-AA8F-DF5CC11305A9}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{17EE9ABD-78BD-E14F-973D-2A03EDF993EB}" name="Año"/>
-    <tableColumn id="2" xr3:uid="{209EB80C-26B8-E144-857B-71B88231C1CB}" name="Valor" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{209EB80C-26B8-E144-857B-71B88231C1CB}" name="Valor" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -418,7 +422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{963B1F9E-A47A-2948-A3D8-F77325C2A8F8}">
   <dimension ref="A1:B64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B64"/>
     </sheetView>
   </sheetViews>
@@ -945,4 +949,211 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EC6825A-3E18-EA44-9EFD-49C42F8FB219}">
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>2000</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2001</v>
+      </c>
+      <c r="B3">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>2002</v>
+      </c>
+      <c r="B4">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>2003</v>
+      </c>
+      <c r="B5">
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>2004</v>
+      </c>
+      <c r="B6">
+        <v>6.23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>2005</v>
+      </c>
+      <c r="B7">
+        <v>6.05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>2006</v>
+      </c>
+      <c r="B8">
+        <v>6.57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>2007</v>
+      </c>
+      <c r="B9">
+        <v>6.19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>2008</v>
+      </c>
+      <c r="B10">
+        <v>4.2300000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>2009</v>
+      </c>
+      <c r="B11">
+        <v>-2.4300000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>2010</v>
+      </c>
+      <c r="B12">
+        <v>3.73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>2011</v>
+      </c>
+      <c r="B13">
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>2012</v>
+      </c>
+      <c r="B14">
+        <v>4.13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>2013</v>
+      </c>
+      <c r="B15">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>2014</v>
+      </c>
+      <c r="B16">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>2015</v>
+      </c>
+      <c r="B17">
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>2016</v>
+      </c>
+      <c r="B18">
+        <v>3.89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>2017</v>
+      </c>
+      <c r="B19">
+        <v>4.84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>2018</v>
+      </c>
+      <c r="B20">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>2019</v>
+      </c>
+      <c r="B21">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>2020</v>
+      </c>
+      <c r="B22">
+        <v>-8.9600000000000009</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>2021</v>
+      </c>
+      <c r="B23">
+        <v>12.53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>2022</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>